--- a/tools/excel/intuitem/vendor-due-diligence.xlsx
+++ b/tools/excel/intuitem/vendor-due-diligence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/excel/intuitem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FA9E9A-705E-D645-AC03-7AE21F10D648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE01334-9C3A-2347-AD76-6EE0713598FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="160" yWindow="840" windowWidth="34240" windowHeight="21340" activeTab="2" xr2:uid="{C1B9C957-850F-8443-8E06-CB4E729FFF6E}"/>
   </bookViews>
@@ -283,12 +283,6 @@
     <t>SDLC</t>
   </si>
   <si>
-    <t>Sécurité du développement (SDLC)</t>
-  </si>
-  <si>
-    <t>Development security (SDLC)</t>
-  </si>
-  <si>
     <t>SDLC-01</t>
   </si>
   <si>
@@ -574,9 +568,6 @@
     <t>vendor-due-diligence</t>
   </si>
   <si>
-    <t>Vendor Due Diligence</t>
-  </si>
-  <si>
     <t>Simple framework for rapid due diligence review of vendors</t>
   </si>
   <si>
@@ -584,6 +575,15 @@
   </si>
   <si>
     <t>urn:intuitem:risk:framework:vendor-due-diligence</t>
+  </si>
+  <si>
+    <t>Vendor Due Diligence - simple</t>
+  </si>
+  <si>
+    <t>Sécurité du développement</t>
+  </si>
+  <si>
+    <t>Development security</t>
   </si>
 </sst>
 </file>
@@ -996,7 +996,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="263" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1019,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1043,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1067,7 +1067,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1105,7 +1105,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="186" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1128,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1136,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,7 +1160,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C66D1A5-D362-274A-84D5-DA2AC26B176B}">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="183" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1542,10 +1542,10 @@
         <v>79</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>81</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -1556,13 +1556,13 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1573,13 +1573,13 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -1590,13 +1590,13 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -1607,13 +1607,13 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -1624,13 +1624,13 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -1641,13 +1641,13 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -1658,13 +1658,13 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1672,13 +1672,13 @@
         <v>1</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -1689,13 +1689,13 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
@@ -1706,13 +1706,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -1723,13 +1723,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1737,13 +1737,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -1754,13 +1754,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
@@ -1771,13 +1771,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1788,13 +1788,13 @@
         <v>2</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -1805,13 +1805,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -1822,13 +1822,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1839,13 +1839,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1853,13 +1853,13 @@
         <v>1</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>135</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -1870,13 +1870,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
@@ -1887,13 +1887,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -1904,13 +1904,13 @@
         <v>2</v>
       </c>
       <c r="C44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -1918,13 +1918,13 @@
         <v>1</v>
       </c>
       <c r="C45" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -1935,13 +1935,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>150</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -1952,13 +1952,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -1969,13 +1969,13 @@
         <v>2</v>
       </c>
       <c r="C48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -1986,13 +1986,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -2003,13 +2003,13 @@
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2020,13 +2020,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -2037,13 +2037,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>168</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -2054,13 +2054,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>171</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/tools/excel/intuitem/vendor-due-diligence.xlsx
+++ b/tools/excel/intuitem/vendor-due-diligence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/excel/intuitem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE01334-9C3A-2347-AD76-6EE0713598FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C160C19A-0022-2E44-97D8-CFAB85B76645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="840" windowWidth="34240" windowHeight="21340" activeTab="2" xr2:uid="{C1B9C957-850F-8443-8E06-CB4E729FFF6E}"/>
+    <workbookView xWindow="4020" yWindow="-28020" windowWidth="50880" windowHeight="27860" activeTab="2" xr2:uid="{C1B9C957-850F-8443-8E06-CB4E729FFF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="objectives_content" sheetId="6" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">objectives_content!$A$1:$E$53</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">objectives_content!$A$1:$F$56</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
   <si>
     <t>name</t>
   </si>
@@ -109,72 +109,48 @@
     <t>Governance and organization</t>
   </si>
   <si>
-    <t>GOV-01</t>
-  </si>
-  <si>
     <t>L’organisation est certifiée ISO 27001 ou SOC 2.</t>
   </si>
   <si>
     <t>The organization is certified ISO 27001 or SOC 2.</t>
   </si>
   <si>
-    <t>GOV-02</t>
-  </si>
-  <si>
     <t>Une personne est désignée comme responsable de la cybersécurité.</t>
   </si>
   <si>
     <t>A person is designated as responsible for cybersecurity.</t>
   </si>
   <si>
-    <t>GOV-03</t>
-  </si>
-  <si>
     <t>Une politique de cybersécurité documentée, maintenue et appliquée est en place.</t>
   </si>
   <si>
     <t>A documented, maintained, and enforced cybersecurity policy is in place.</t>
   </si>
   <si>
-    <t>GOV-04</t>
-  </si>
-  <si>
     <t>Une démarche d’analyse et de gestion des risques cyber est en place.</t>
   </si>
   <si>
     <t>A cyber risk analysis and management process is in place.</t>
   </si>
   <si>
-    <t>GOV-05</t>
-  </si>
-  <si>
     <t>Le personnel est sensibilisé et formé aux enjeux de cybersécurité.</t>
   </si>
   <si>
     <t>Staff are aware of and trained in cybersecurity matters.</t>
   </si>
   <si>
-    <t>GOV-06</t>
-  </si>
-  <si>
     <t>La sécurité de l’information est gérée avec les fournisseurs.</t>
   </si>
   <si>
     <t>Information security is managed with suppliers.</t>
   </si>
   <si>
-    <t>GOV-07</t>
-  </si>
-  <si>
     <t>L’organisation est conforme au RGPD (GDPR).</t>
   </si>
   <si>
     <t>The organization is compliant with GDPR.</t>
   </si>
   <si>
-    <t>GOV-08</t>
-  </si>
-  <si>
     <t>L'organisation dispose d'une assurance cybersécurité.</t>
   </si>
   <si>
@@ -190,45 +166,30 @@
     <t>Access and identity management</t>
   </si>
   <si>
-    <t>IAM-01</t>
-  </si>
-  <si>
     <t>Les accès sont contrôlés et revus régulièrement.</t>
   </si>
   <si>
     <t>Accesses are controlled and regularly reviewed.</t>
   </si>
   <si>
-    <t>IAM-02</t>
-  </si>
-  <si>
     <t>Un MFA est activé pour les opérations sensibles.</t>
   </si>
   <si>
     <t>MFA is enabled for sensitive operations.</t>
   </si>
   <si>
-    <t>IAM-03</t>
-  </si>
-  <si>
     <t>Les opérations sensibles sont tracées et auditées.</t>
   </si>
   <si>
     <t>Sensitive operations are logged and audited.</t>
   </si>
   <si>
-    <t>IAM-04</t>
-  </si>
-  <si>
     <t>Les accès privilégiés sont réservés à une population restreinte.</t>
   </si>
   <si>
     <t>Privileged accesses are restricted to a limited population.</t>
   </si>
   <si>
-    <t>IAM-06</t>
-  </si>
-  <si>
     <t>Une revue périodique des droits d’accès est effectuée.</t>
   </si>
   <si>
@@ -244,36 +205,24 @@
     <t>Physical and infrastructure security</t>
   </si>
   <si>
-    <t>INF-01</t>
-  </si>
-  <si>
     <t>La sécurité physique des locaux et datacenters est gérée (contrôle d’accès, surveillance, etc.).</t>
   </si>
   <si>
     <t>Physical security of premises and datacenters is managed (access control, monitoring, etc.).</t>
   </si>
   <si>
-    <t>INF-02</t>
-  </si>
-  <si>
     <t>Un filtrage réseau, une protection DDoS et un WAF sont déployés.</t>
   </si>
   <si>
     <t>Network filtering, DDoS protection, and a WAF are implemented.</t>
   </si>
   <si>
-    <t>INF-03</t>
-  </si>
-  <si>
     <t>Une protection anti-malware est déployée sur tous les workloads (endpoints, e-mails, cloud, etc.).</t>
   </si>
   <si>
     <t>Anti-malware protection is deployed across all workloads (endpoints, emails, cloud, etc.).</t>
   </si>
   <si>
-    <t>INF-04</t>
-  </si>
-  <si>
     <t>Les logs sont collectés et analysés pour la détection d’incidents.</t>
   </si>
   <si>
@@ -283,63 +232,42 @@
     <t>SDLC</t>
   </si>
   <si>
-    <t>SDLC-01</t>
-  </si>
-  <si>
     <t>Un processus de sécurité est intégré au cycle de développement (SDLC).</t>
   </si>
   <si>
     <t>A security process is integrated into the development lifecycle (SDLC).</t>
   </si>
   <si>
-    <t>SDLC-02</t>
-  </si>
-  <si>
     <t>Des analyses de vulnérabilités (code, dépendances, infrastructure) sont réalisées régulièrement.</t>
   </si>
   <si>
     <t>Vulnerability scans (code, dependencies, infrastructure) are performed regularly.</t>
   </si>
   <si>
-    <t>SDLC-03</t>
-  </si>
-  <si>
     <t>Des mises à jour de sécurité sont appliquées régulièrement.</t>
   </si>
   <si>
     <t>Security updates are applied regularly.</t>
   </si>
   <si>
-    <t>SDLC-04</t>
-  </si>
-  <si>
     <t>Les développeurs sont formés au développement sécurisé.</t>
   </si>
   <si>
     <t>Developers are trained in secure coding practices.</t>
   </si>
   <si>
-    <t>SDLC-05</t>
-  </si>
-  <si>
     <t>Les environnements de production et de test sont séparés.</t>
   </si>
   <si>
     <t>Production and test environments are separated.</t>
   </si>
   <si>
-    <t>SDLC-06</t>
-  </si>
-  <si>
     <t>Les données de production sont exclusivement utilisées en production.</t>
   </si>
   <si>
     <t>Production data are used exclusively in production.</t>
   </si>
   <si>
-    <t>SDLC-07</t>
-  </si>
-  <si>
     <t>Les données applicatives de production ne sont pas exploitées pour des finalités non déclarées (analyse de contenu, entraînement IA, etc.).</t>
   </si>
   <si>
@@ -355,24 +283,15 @@
     <t>Audit, testing and assurance</t>
   </si>
   <si>
-    <t>AUD-01</t>
-  </si>
-  <si>
     <t>Un audit de l’application ou de l’organisation peut être réalisé.</t>
   </si>
   <si>
     <t>An audit of the application or organization can be performed.</t>
   </si>
   <si>
-    <t>AUD-02</t>
-  </si>
-  <si>
     <t>Penetration tests (pentests) are conducted regularly.</t>
   </si>
   <si>
-    <t>AUD-03</t>
-  </si>
-  <si>
     <t>Des tests qualité et sécurité (QA) sont en place.</t>
   </si>
   <si>
@@ -382,60 +301,36 @@
     <t>INC</t>
   </si>
   <si>
-    <t>Gestion des incidents et continuité</t>
-  </si>
-  <si>
-    <t>Incident management and continuity</t>
-  </si>
-  <si>
-    <t>INC-01</t>
-  </si>
-  <si>
     <t>Un processus de gestion des incidents (IRP) est en place.</t>
   </si>
   <si>
     <t>An incident response process (IRP) is in place.</t>
   </si>
   <si>
-    <t>INC-02</t>
-  </si>
-  <si>
     <t>Les clients sont notifiés en cas d’incident affectant leurs données.</t>
   </si>
   <si>
     <t>Clients are notified in case of an incident affecting their data.</t>
   </si>
   <si>
-    <t>INC-03.1</t>
-  </si>
-  <si>
     <t>Des sauvegardes (backups) sont en place.</t>
   </si>
   <si>
     <t>Backups are implemented.</t>
   </si>
   <si>
-    <t>INC-03.2</t>
-  </si>
-  <si>
     <t>Les sauvegardes sont effectuées à une fréquence définie.</t>
   </si>
   <si>
     <t>Backups are performed at a defined frequency.</t>
   </si>
   <si>
-    <t>INC-03.3</t>
-  </si>
-  <si>
     <t>Les sauvegardes sont protégées contre les accès ou modifications non autorisés.</t>
   </si>
   <si>
     <t>Backups are protected against unauthorized access.</t>
   </si>
   <si>
-    <t>INC-03.4</t>
-  </si>
-  <si>
     <t>Les restaurations de sauvegardes sont testées régulièrement.</t>
   </si>
   <si>
@@ -451,27 +346,18 @@
     <t>Data management and lifecycle</t>
   </si>
   <si>
-    <t>DATA-01</t>
-  </si>
-  <si>
     <t>Un processus de destruction sécurisée des données est en place.</t>
   </si>
   <si>
     <t>A secure data destruction process is in place.</t>
   </si>
   <si>
-    <t>DATA-02</t>
-  </si>
-  <si>
     <t>La portabilité des données est assurée sur demande du client.</t>
   </si>
   <si>
     <t>Data portability is provided upon client request.</t>
   </si>
   <si>
-    <t>DATA-03</t>
-  </si>
-  <si>
     <t>Les données clients sont clairement séparées entre locataires (multi-tenant isolation).</t>
   </si>
   <si>
@@ -487,72 +373,48 @@
     <t>Application security</t>
   </si>
   <si>
-    <t>APP-01</t>
-  </si>
-  <si>
     <t>L’application est compatible avec le SSO (Single Sign-On).</t>
   </si>
   <si>
     <t>The application is compatible with SSO (Single Sign-On).</t>
   </si>
   <si>
-    <t>APP-02</t>
-  </si>
-  <si>
     <t>Le MFA peut être activé localement.</t>
   </si>
   <si>
     <t>MFA can be enabled locally.</t>
   </si>
   <si>
-    <t>APP-03</t>
-  </si>
-  <si>
     <t>Les données sont chiffrées au repos (at rest).</t>
   </si>
   <si>
     <t>Data are encrypted at rest.</t>
   </si>
   <si>
-    <t>APP-04</t>
-  </si>
-  <si>
     <t>Les communications sont chiffrées en transit.</t>
   </si>
   <si>
     <t>Communications are encrypted in transit.</t>
   </si>
   <si>
-    <t>APP-05</t>
-  </si>
-  <si>
     <t>Un contrôle d’accès basé sur les rôles (RBAC) est implémenté dans l’application.</t>
   </si>
   <si>
     <t>A role-based access control (RBAC) system is implemented in the application.</t>
   </si>
   <si>
-    <t>APP-06</t>
-  </si>
-  <si>
     <t>Un journal d’audit (Audit Log) assure la traçabilité des opérations.</t>
   </si>
   <si>
     <t>An audit log ensures traceability of operations.</t>
   </si>
   <si>
-    <t>APP-07</t>
-  </si>
-  <si>
     <t>Le code source est accessible et auditable.</t>
   </si>
   <si>
     <t>The source code is accessible and auditable.</t>
   </si>
   <si>
-    <t>APP-08</t>
-  </si>
-  <si>
     <t>Des règles de complexité et de force des mots de passe sont imposées aux utilisateurs.</t>
   </si>
   <si>
@@ -584,13 +446,181 @@
   </si>
   <si>
     <t>Development security</t>
+  </si>
+  <si>
+    <t>BAK</t>
+  </si>
+  <si>
+    <t>BAK.01</t>
+  </si>
+  <si>
+    <t>GOV.01</t>
+  </si>
+  <si>
+    <t>GOV.02</t>
+  </si>
+  <si>
+    <t>GOV.03</t>
+  </si>
+  <si>
+    <t>GOV.04</t>
+  </si>
+  <si>
+    <t>GOV.05</t>
+  </si>
+  <si>
+    <t>GOV.06</t>
+  </si>
+  <si>
+    <t>GOV.07</t>
+  </si>
+  <si>
+    <t>GOV.08</t>
+  </si>
+  <si>
+    <t>IAM.01</t>
+  </si>
+  <si>
+    <t>IAM.02</t>
+  </si>
+  <si>
+    <t>IAM.03</t>
+  </si>
+  <si>
+    <t>IAM.04</t>
+  </si>
+  <si>
+    <t>IAM.05</t>
+  </si>
+  <si>
+    <t>INF.01</t>
+  </si>
+  <si>
+    <t>INF.02</t>
+  </si>
+  <si>
+    <t>INF.03</t>
+  </si>
+  <si>
+    <t>INF.04</t>
+  </si>
+  <si>
+    <t>SDLC.01</t>
+  </si>
+  <si>
+    <t>SDLC.02</t>
+  </si>
+  <si>
+    <t>SDLC.03</t>
+  </si>
+  <si>
+    <t>SDLC.04</t>
+  </si>
+  <si>
+    <t>SDLC.05</t>
+  </si>
+  <si>
+    <t>SDLC.06</t>
+  </si>
+  <si>
+    <t>SDLC.07</t>
+  </si>
+  <si>
+    <t>AUD.01</t>
+  </si>
+  <si>
+    <t>AUD.02</t>
+  </si>
+  <si>
+    <t>AUD.03</t>
+  </si>
+  <si>
+    <t>INC.01</t>
+  </si>
+  <si>
+    <t>INC.02</t>
+  </si>
+  <si>
+    <t>BAK.02</t>
+  </si>
+  <si>
+    <t>BAK.03</t>
+  </si>
+  <si>
+    <t>BAK.04</t>
+  </si>
+  <si>
+    <t>Gestion de la continuité</t>
+  </si>
+  <si>
+    <t>Gestion des incidents</t>
+  </si>
+  <si>
+    <t>BAK.05</t>
+  </si>
+  <si>
+    <t>Les RTO et RPO des fonctions essentielles sont identifiés et communiquée.</t>
+  </si>
+  <si>
+    <t>Des procédures sont documentés pour assurer le PCA et PRA et revues régulièrement.</t>
+  </si>
+  <si>
+    <t>BAK.06</t>
+  </si>
+  <si>
+    <t>RTO and RPO of essential functions are identified and communicated.</t>
+  </si>
+  <si>
+    <t>BCP and DRP are defined, documented and regularly reviewed.</t>
+  </si>
+  <si>
+    <t>Business continuity</t>
+  </si>
+  <si>
+    <t>Incident management</t>
+  </si>
+  <si>
+    <t>DATA.01</t>
+  </si>
+  <si>
+    <t>DATA.02</t>
+  </si>
+  <si>
+    <t>DATA.03</t>
+  </si>
+  <si>
+    <t>APP.01</t>
+  </si>
+  <si>
+    <t>APP.02</t>
+  </si>
+  <si>
+    <t>APP.03</t>
+  </si>
+  <si>
+    <t>APP.04</t>
+  </si>
+  <si>
+    <t>APP.05</t>
+  </si>
+  <si>
+    <t>APP.06</t>
+  </si>
+  <si>
+    <t>APP.07</t>
+  </si>
+  <si>
+    <t>APP.08</t>
+  </si>
+  <si>
+    <t>description[en]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -613,6 +643,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -622,27 +665,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -654,10 +682,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,7 +1045,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>173</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1077,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1067,7 +1093,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1128,7 +1154,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1136,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1144,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1152,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1160,7 +1186,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1171,53 +1197,61 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C66D1A5-D362-274A-84D5-DA2AC26B176B}">
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="183" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="7.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="107.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="79.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="28.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="105.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="76.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="4">
+      <c r="G1" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1225,845 +1259,896 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="1" t="s">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="F11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2</v>
-      </c>
-      <c r="C10" s="1" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E10" s="1" t="s">
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
+      <c r="G14" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="1">
-        <v>2</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="1" t="s">
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1">
-        <v>2</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D17" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="F17" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E13" s="1" t="s">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="1" t="s">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E15" s="1" t="s">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="3">
+        <v>1</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="D22" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="1">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
+      <c r="G23" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="1" t="s">
+      <c r="C30" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="D30" s="3" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="4">
+      <c r="F30" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="1">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="3">
         <v>1</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="4" t="s">
+      <c r="C34" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="4">
+        <v>1</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="1">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B43" s="1">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B45" s="1">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E45" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="4">
+      <c r="E46" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47" s="1">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="3">
         <v>1</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B32" s="1">
-        <v>2</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="C48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D32" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E32" s="1" t="s">
+      <c r="D48" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B33" s="1">
-        <v>2</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="F48" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="D33" s="1" t="s">
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="G49" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="G50" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="E34" s="4" t="s">
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B35" s="1">
-        <v>2</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D35" s="1" t="s">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="1">
-        <v>2</v>
-      </c>
-      <c r="C36" s="1" t="s">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="1">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="1" t="s">
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B37" s="1">
-        <v>2</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D37" s="1" t="s">
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B55" s="1">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B56" s="1">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B39" s="1">
-        <v>2</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40" s="1">
-        <v>2</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="4">
-        <v>1</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B42" s="1">
-        <v>2</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="1">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="1">
-        <v>2</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="1">
-        <v>2</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B47" s="1">
-        <v>2</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="1">
-        <v>2</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B49" s="1">
-        <v>2</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B50" s="1">
-        <v>2</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="1">
-        <v>2</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B52" s="1">
-        <v>2</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" s="1">
-        <v>2</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>171</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/tools/excel/intuitem/vendor-due-diligence.xlsx
+++ b/tools/excel/intuitem/vendor-due-diligence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abder/mydev/intuitem/staging/ciso-assistant-community/tools/excel/intuitem/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C160C19A-0022-2E44-97D8-CFAB85B76645}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70CC37E0-2542-3243-890D-63DC29644FC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="-28020" windowWidth="50880" windowHeight="27860" activeTab="2" xr2:uid="{C1B9C957-850F-8443-8E06-CB4E729FFF6E}"/>
+    <workbookView xWindow="160" yWindow="840" windowWidth="34240" windowHeight="21340" activeTab="2" xr2:uid="{C1B9C957-850F-8443-8E06-CB4E729FFF6E}"/>
   </bookViews>
   <sheets>
     <sheet name="library_meta" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="192">
   <si>
     <t>name</t>
   </si>
@@ -289,9 +289,6 @@
     <t>An audit of the application or organization can be performed.</t>
   </si>
   <si>
-    <t>Penetration tests (pentests) are conducted regularly.</t>
-  </si>
-  <si>
     <t>Des tests qualité et sécurité (QA) sont en place.</t>
   </si>
   <si>
@@ -550,9 +547,6 @@
     <t>BAK.04</t>
   </si>
   <si>
-    <t>Gestion de la continuité</t>
-  </si>
-  <si>
     <t>Gestion des incidents</t>
   </si>
   <si>
@@ -614,6 +608,15 @@
   </si>
   <si>
     <t>description[en]</t>
+  </si>
+  <si>
+    <t>Plan de continuité</t>
+  </si>
+  <si>
+    <t>Des tests de pénétration sont conduits régulièrement par une entité indépendante.</t>
+  </si>
+  <si>
+    <t>Penetration tests (pentests) are conducted regularly by an independent entity.</t>
   </si>
 </sst>
 </file>
@@ -1045,7 +1048,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1069,7 +1072,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1077,7 +1080,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -1085,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -1093,7 +1096,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1154,7 +1157,7 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1162,7 +1165,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1170,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -1178,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -1186,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1199,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C66D1A5-D362-274A-84D5-DA2AC26B176B}">
   <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="B15" zoomScale="183" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1234,7 +1237,7 @@
         <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1259,7 +1262,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>22</v>
@@ -1276,7 +1279,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>24</v>
@@ -1293,7 +1296,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>26</v>
@@ -1310,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>28</v>
@@ -1327,7 +1330,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>30</v>
@@ -1344,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
@@ -1361,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>34</v>
@@ -1378,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>36</v>
@@ -1409,7 +1412,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>41</v>
@@ -1426,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>43</v>
@@ -1443,7 +1446,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>45</v>
@@ -1460,7 +1463,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>47</v>
@@ -1477,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>49</v>
@@ -1508,7 +1511,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>54</v>
@@ -1525,7 +1528,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>56</v>
@@ -1542,7 +1545,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>58</v>
@@ -1559,7 +1562,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E21" s="1" t="s">
         <v>60</v>
@@ -1576,10 +1579,10 @@
         <v>62</v>
       </c>
       <c r="D22" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>133</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -1590,7 +1593,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E23" s="1" t="s">
         <v>63</v>
@@ -1607,7 +1610,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>65</v>
@@ -1624,7 +1627,7 @@
         <v>2</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>67</v>
@@ -1641,7 +1644,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>69</v>
@@ -1658,7 +1661,7 @@
         <v>2</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>71</v>
@@ -1675,7 +1678,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>73</v>
@@ -1692,7 +1695,7 @@
         <v>2</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>75</v>
@@ -1723,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>80</v>
@@ -1740,13 +1743,13 @@
         <v>2</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>82</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
@@ -1757,13 +1760,13 @@
         <v>2</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1771,13 +1774,13 @@
         <v>1</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
@@ -1788,13 +1791,13 @@
         <v>2</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
@@ -1805,13 +1808,13 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
@@ -1819,14 +1822,14 @@
         <v>1</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="E37" s="4"/>
       <c r="F37" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
@@ -1837,13 +1840,13 @@
         <v>2</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -1854,13 +1857,13 @@
         <v>2</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -1871,13 +1874,13 @@
         <v>2</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -1888,13 +1891,13 @@
         <v>2</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G41" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
@@ -1905,13 +1908,13 @@
         <v>2</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
@@ -1922,13 +1925,13 @@
         <v>2</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1936,13 +1939,13 @@
         <v>1</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="F44" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -1953,13 +1956,13 @@
         <v>2</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -1970,13 +1973,13 @@
         <v>2</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -1987,13 +1990,13 @@
         <v>2</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E47" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -2001,13 +2004,13 @@
         <v>1</v>
       </c>
       <c r="C48" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D48" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="F48" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
@@ -2018,13 +2021,13 @@
         <v>2</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
@@ -2035,13 +2038,13 @@
         <v>2</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E50" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
@@ -2052,13 +2055,13 @@
         <v>2</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E51" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
@@ -2069,13 +2072,13 @@
         <v>2</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E52" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
@@ -2086,13 +2089,13 @@
         <v>2</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E53" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
@@ -2103,13 +2106,13 @@
         <v>2</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E54" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G54" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
@@ -2120,13 +2123,13 @@
         <v>2</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
@@ -2137,13 +2140,13 @@
         <v>2</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
